--- a/codebookMouse448.xlsx
+++ b/codebookMouse448.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/OneDrive - KI.SE/Projects/FISH-probes/TwistPools/Mouse448/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/lars_borm_kuleuven_be/Documents/Documents/Projects/FISH_general/oligopy/oligopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A9258-4293-E249-95E2-D9977F9C44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{284ACB0A-744A-FF4D-9CD7-66213E1C9F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="-800" windowWidth="27780" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="3900" windowWidth="27780" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2813,7 +2826,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2868,7 +2881,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3175,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="L393" sqref="A393:L393"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
